--- a/Firmware/v1.4 Stable - Hard v0.3 to v0.4/LCD - EEPROM - Layout - Firm v14.xlsx
+++ b/Firmware/v1.4 Stable - Hard v0.3 to v0.4/LCD - EEPROM - Layout - Firm v14.xlsx
@@ -781,10 +781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AF159"/>
+  <dimension ref="A1:AF154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="X160" sqref="X160"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="X151" sqref="X151:Y159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6230,7 +6230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>53</v>
       </c>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="U145" s="6"/>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>0</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -6393,12 +6393,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="2" t="s">
         <v>53</v>
@@ -6461,7 +6461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>53</v>
       </c>
@@ -6478,31 +6478,31 @@
         <v>27</v>
       </c>
       <c r="F151" s="5"/>
-      <c r="G151" s="5" t="s">
+      <c r="G151" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H151" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I151" s="5" t="s">
+      <c r="I151" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J151" s="5" t="s">
+      <c r="J151" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K151" s="5" t="s">
+      <c r="K151" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L151" s="5" t="s">
+      <c r="L151" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M151" s="5" t="s">
+      <c r="M151" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N151" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O151" s="5" t="s">
+      <c r="O151" s="6" t="s">
         <v>51</v>
       </c>
       <c r="Q151" s="1" t="s">
@@ -6517,15 +6517,8 @@
       <c r="T151" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="X151" s="9">
-        <v>512</v>
-      </c>
-      <c r="Y151" s="9">
-        <f>X151/2</f>
-        <v>256</v>
-      </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>0</v>
       </c>
@@ -6571,15 +6564,8 @@
       <c r="U152" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X152" s="9">
-        <v>256</v>
-      </c>
-      <c r="Y152" s="9">
-        <f t="shared" ref="Y152:Y159" si="0">X152/2</f>
-        <v>128</v>
-      </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>1</v>
       </c>
@@ -6600,15 +6586,8 @@
       <c r="O153" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="X153" s="9">
-        <v>128</v>
-      </c>
-      <c r="Y153" s="9">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>2</v>
       </c>
@@ -6652,58 +6631,6 @@
       </c>
       <c r="U154" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="X154" s="9">
-        <v>64</v>
-      </c>
-      <c r="Y154" s="9">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="X155" s="9">
-        <v>32</v>
-      </c>
-      <c r="Y155" s="9">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="X156" s="9">
-        <v>16</v>
-      </c>
-      <c r="Y156" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="X157" s="9">
-        <v>8</v>
-      </c>
-      <c r="Y157" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="X158" s="9">
-        <v>4</v>
-      </c>
-      <c r="Y158" s="9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="X159" s="9">
-        <v>2</v>
-      </c>
-      <c r="Y159" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
